--- a/app/webroot/files/1/1 - Atenciones Curativas.xlsx
+++ b/app/webroot/files/1/1 - Atenciones Curativas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manri\Desktop\Formatos tablas Fosalud\Region Metropolitana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAC4DCB-4E5F-4A75-B3D4-E7B78C6F17FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804DACBB-3E5E-4357-BE99-A44294C357C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-2160" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atenciones Curativas" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="D2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4:AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,11 +1646,6 @@
     <protectedRange sqref="E4:AN23" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="AL2:AN2"/>
     <mergeCell ref="H2:J2"/>
@@ -1659,6 +1654,11 @@
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
